--- a/questions_data.xlsx
+++ b/questions_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K357"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17253,10 +17253,8 @@
       <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
+      <c r="A352" t="n">
+        <v>351</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -17302,10 +17300,8 @@
       <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
+      <c r="A353" t="n">
+        <v>352</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -17351,10 +17347,8 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
+      <c r="A354" t="n">
+        <v>353</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -17404,10 +17398,8 @@
       <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
+      <c r="A355" t="n">
+        <v>354</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -17457,10 +17449,8 @@
       <c r="K355" t="inlineStr"/>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
+      <c r="A356" t="n">
+        <v>355</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -17506,10 +17496,8 @@
       <c r="K356" t="inlineStr"/>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
+      <c r="A357" t="n">
+        <v>356</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -17553,6 +17541,428 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>DRAG DROP -&lt;br/&gt;Your company intends to subscribe to an Azure support plan.&lt;br/&gt;The support plan must allow for new support requests to be opened.&lt;br/&gt;Which of the following are support plans that will allow this? Answer by dragging the correct option from the list to the answer area.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="/AZ-900/Images/question_1.jpg"/&gt;&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>/AZ-900/Images/question_1.jpg</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Your company has datacenters in Los Angeles and New York. The company has a Microsoft Azure subscription.&lt;br/&gt;You are configuring the two datacenters as geo-clustered sites for site resiliency.&lt;br/&gt;You need to recommend an Azure storage redundancy option.&lt;br/&gt;You have the following data storage requirements:&lt;br/&gt;✑ Data must be stored on multiple nodes.&lt;br/&gt;✑ Data must be stored on nodes in separate geographic locations.&lt;br/&gt;✑ Data can be read from the secondary location as well as from the primary location&lt;br/&gt;Which of the following Azure stored redundancy options should you recommend?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Geo-redundant storage</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Read-only geo-redundant storage</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Zone-redundant storage</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Locally redundant storage</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Azure subscription includes a Basic support plan.&lt;br/&gt;They would like to request an assessment of an Azure environment's design from Microsoft. This is, however, not supported by the existing plan.&lt;br/&gt;You want to make sure that the company subscribes to a support plan that allows this functionality, while keeping expenses to a minimum.&lt;br/&gt;Solution: You recommend that the company subscribes to the Professional Direct support plan.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Software as a Service (SaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Platform as a Service (PaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Infrastructure as a Service (IaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Your developers have created 10 web applications that must be host on Azure.&lt;br/&gt;You need to determine which Azure web tier plan to host the web apps. The web tier plan must meet the following requirements:&lt;br/&gt;✑ The web apps will use custom domains.&lt;br/&gt;✑ The web apps each require 10 GB of storage.&lt;br/&gt;✑ The web apps must each run in dedicated compute instances.&lt;br/&gt;✑ Load balancing between instances must be included.&lt;br/&gt;✑ Costs must be minimized.&lt;br/&gt;Which web tier plan should you use?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning to migrate a company to Azure. Each of the company's numerous divisions will have an administrator in place to manage the Azure resources used by their respective division.&lt;br/&gt;You want to make sure that the Azure deployment you employ allows for Azure to be segmented for the divisions, while keeping administrative effort to a minimum.&lt;br/&gt;Solution: You plan to make use of several Azure Active Directory (Azure AD) directories.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Your developers have created a portal web app for users in the Miami branch office. The web app will be publicly accessible and used by the Miami users to retrieve customer and product information. The web app is currently running in an on-premises test environment.&lt;br/&gt;You plan to host the web app on Azure.&lt;br/&gt;You need to determine which Azure web tier plan to host the web app. The web tier plan must meet the following requirements:&lt;br/&gt;✑ The website will use the miami.weyland.com URL.&lt;br/&gt;✑ The website will be deployed to two instances.&lt;br/&gt;✑ SSL support must be included.&lt;br/&gt;✑ The website requires 12 GB of storage.&lt;br/&gt;✑ Costs must be minimized.&lt;br/&gt;Which web tier plan should you use?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the elastic expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
